--- a/biology/Botanique/Hippolyte_de_La_Hamelinaye/Hippolyte_de_La_Hamelinaye.xlsx
+++ b/biology/Botanique/Hippolyte_de_La_Hamelinaye/Hippolyte_de_La_Hamelinaye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippolyte de La Hamelinaye, né le 19 mars 1861 à Rennes et mort le 29 juillet 1935 à Nantes, est un ingénieur forestier français.
 </t>
@@ -511,10 +523,12 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippolyte de La Hamelinaye est le fils d'Alexandre Poinçon de La Blanchardière - Jan de La Hamelinaye, officier et conseiller général d'Ille-et-Vilaine, et de Caroline Mérot des Granges ; son père avait été autorisé par décret du 5 janvier 1853 à ajouter à son nom  le patronyme « Jan de La Hamelinaye », du nom de son grand-père, le général Jacques Félix Jan de La Hamelinaye (1769-1861) [1].
-Ile se marie à Madeleine Lanfranc de Panthou en novembre 1886[2],[3]. Sa fille Marie-Thérèse se marie avec de Fremond de La Merveillère en 1913[4], fille d'Olivier de Fremond et de Marie Alphonsine Armande Galbaud du Fort.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippolyte de La Hamelinaye est le fils d'Alexandre Poinçon de La Blanchardière - Jan de La Hamelinaye, officier et conseiller général d'Ille-et-Vilaine, et de Caroline Mérot des Granges ; son père avait été autorisé par décret du 5 janvier 1853 à ajouter à son nom  le patronyme « Jan de La Hamelinaye », du nom de son grand-père, le général Jacques Félix Jan de La Hamelinaye (1769-1861) .
+Ile se marie à Madeleine Lanfranc de Panthou en novembre 1886,. Sa fille Marie-Thérèse se marie avec de Fremond de La Merveillère en 1913, fille d'Olivier de Fremond et de Marie Alphonsine Armande Galbaud du Fort.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élève de l'École nationale des eaux et forêts à Nancy, il fait partie de la 57e promotion de 1883 [5]. Il est successivement garde général stagiaire à Rodez en 1883, garde général à Argelès en 1884, à Lourdes en 1885, à Oyonnax en 1886, à Arnay-le-Duc en 1887, inspecteur adjoint à Mauléon en 1892 et inspecteur des eaux et forêts, chargé du service des aménagements à Pau de 1897 à 1911. Il est admis à la retraite à sa demande en 1912 [5].
-Il reprend du service pendant la première Guerre mondiale, affecté à l'arrière et assurant l'intérim des inspections des Eaux et Forêts d'Angoulême et d'Orléans dont les titulaires sont mobilisés [5]. Son fils Yves, sous-lieutenant au 51e régiment d'artillerie est tué en 1916 [6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève de l'École nationale des eaux et forêts à Nancy, il fait partie de la 57e promotion de 1883 . Il est successivement garde général stagiaire à Rodez en 1883, garde général à Argelès en 1884, à Lourdes en 1885, à Oyonnax en 1886, à Arnay-le-Duc en 1887, inspecteur adjoint à Mauléon en 1892 et inspecteur des eaux et forêts, chargé du service des aménagements à Pau de 1897 à 1911. Il est admis à la retraite à sa demande en 1912 .
+Il reprend du service pendant la première Guerre mondiale, affecté à l'arrière et assurant l'intérim des inspections des Eaux et Forêts d'Angoulême et d'Orléans dont les titulaires sont mobilisés . Son fils Yves, sous-lieutenant au 51e régiment d'artillerie est tué en 1916 .
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début du XXe siècle, La Hamelinaye est le premier à recourir à la carte de Cassini afin de déterminer « l'évolution de l'état boisé ». Face aux imprécisions de ces anciennes cartes, il fait réaliser de nouvelles cartes topographiques et de typologie des peuplements [7],[8]. Il a également recours à la photographie, fournissant ainsi de riches albums de plusieurs centaines de clichés, afin de fournir des comparaisons de paysages[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début du XXe siècle, La Hamelinaye est le premier à recourir à la carte de Cassini afin de déterminer « l'évolution de l'état boisé ». Face aux imprécisions de ces anciennes cartes, il fait réaliser de nouvelles cartes topographiques et de typologie des peuplements ,. Il a également recours à la photographie, fournissant ainsi de riches albums de plusieurs centaines de clichés, afin de fournir des comparaisons de paysages.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hippolyte de La Hamelinaye, Album de photographies de la forêt domaniale de Saint-Pé, 1910</t>
         </is>
@@ -636,9 +656,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1916 : Chevalier de la Légion d'honneur[9]</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1916 : Chevalier de la Légion d'honneur</t>
         </is>
       </c>
     </row>
